--- a/biology/Botanique/Route_touristique_des_vins_du_Jura/Route_touristique_des_vins_du_Jura.xlsx
+++ b/biology/Botanique/Route_touristique_des_vins_du_Jura/Route_touristique_des_vins_du_Jura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La route touristique des vins du Jura a été inaugurée en 1990 et s'étend sur près de 80 kilomètres à travers le département du Jura.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +579,9 @@
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur 80 km de coteaux, la route œnotouristique des vins du Jura propose des vins d'exception - dont le fameux vin jaune et le vin de paille - , mais aussi un patrimoine riche et varié. Reconnu AOC par le décret du 15 mai 1936. le vin d'Arbois est la première AOC créée en France.
 Le Revermont du Jura offre des paysages nombreux de coteaux, de vignes, de reculées (immenses falaises creusées dans le plateau calcaire), de grottes, des cascades. Le patrimoine culturel est dense avec des cités historiques de caractère (Arbois, Poligny), des villages typiques (Pupillin, Château-Chalon) et des sites remarquables (Salines de Salins-les-Bains, Abbaye de Baume-les-Messieurs...).
@@ -598,6 +616,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
